--- a/tut04/output_individual_roll/1801CS21.xlsx
+++ b/tut04/output_individual_roll/1801CS21.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,132 +424,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1801CS21</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS491</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>1801CS217CS491CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1801CS21</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS571</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Department Elective - II</t>
+          <t>1801CS217CS571Department Elective - II</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1801CS21</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>CS577</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Department Elective - IV</t>
+          <t>1801CS217CS577Department Elective - IV</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1801CS21</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PH401</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Open Elective</t>
+          <t>1801CS217PH401Open Elective</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1801CS21</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS555</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Department Elective - III</t>
+          <t>1801CS217CS555Department Elective - III</t>
         </is>
       </c>
     </row>
